--- a/Tests/Integration V2 + Search Bar Integration.xlsx
+++ b/Tests/Integration V2 + Search Bar Integration.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\braunman\source\repos\2018-02-healthcare-visualization\Tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\braunman\Source\Repos\2018-02-healthcare-visualization\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35573530-1292-4F5F-B619-2F7DE9840F11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51F5BB7-C082-44E1-931C-E4C35EC0D514}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075" xr2:uid="{A330BECD-E836-4AC6-938E-7E613B009CCC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="83">
   <si>
     <t>Description</t>
   </si>
@@ -220,6 +220,60 @@
   </si>
   <si>
     <t>Text input "J"</t>
+  </si>
+  <si>
+    <t>Correctly removed unapproved characters (seen in console)</t>
+  </si>
+  <si>
+    <t>Correctly trimmed excess characters (seen in console)</t>
+  </si>
+  <si>
+    <t>Correctly outputs no characters (seen in console)</t>
+  </si>
+  <si>
+    <t>Apple is the exclusive search result</t>
+  </si>
+  <si>
+    <t>Banana is the exclusive search result</t>
+  </si>
+  <si>
+    <t>Carrot is the exclusive search result</t>
+  </si>
+  <si>
+    <t>Danish is the exclusive search result</t>
+  </si>
+  <si>
+    <t>Eggplant is the exclusive search result</t>
+  </si>
+  <si>
+    <t>Fritters is the exclusive search result</t>
+  </si>
+  <si>
+    <t>Garlic is the exclusive search result</t>
+  </si>
+  <si>
+    <t>Halloumi is the exclusive search result</t>
+  </si>
+  <si>
+    <t>Ice is the exclusive search result</t>
+  </si>
+  <si>
+    <t>Jalapeno is the exclusive search result</t>
+  </si>
+  <si>
+    <t>Partial text match shows other results</t>
+  </si>
+  <si>
+    <t>Popup displays correctly</t>
+  </si>
+  <si>
+    <t>Search terms filter correctly</t>
+  </si>
+  <si>
+    <t>Search terms disappear correctly</t>
+  </si>
+  <si>
+    <t>Search terms reappear correctly</t>
   </si>
 </sst>
 </file>
@@ -517,7 +571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -526,6 +580,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -538,24 +676,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -565,71 +685,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -948,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3386EA7-E985-4B0C-876A-4522744B2EB5}">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16:M16"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40:J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,185 +1021,185 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="21"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="30"/>
     </row>
     <row r="2" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="24"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="33"/>
     </row>
     <row r="3" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="7"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="35"/>
     </row>
     <row r="4" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="7"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="35"/>
     </row>
     <row r="5" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="7"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="7"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="35"/>
     </row>
     <row r="7" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="7"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="35"/>
     </row>
     <row r="8" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="9"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="37"/>
     </row>
     <row r="9" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="32" t="s">
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="32" t="s">
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="28" t="s">
+      <c r="I9" s="16"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="29"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="17"/>
       <c r="N9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1147,1058 +1210,964 @@
       <c r="A10" s="5">
         <v>1</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="33" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="30" t="s">
+      <c r="I10" s="19"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="30"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="15"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="23"/>
+      <c r="P10" s="24"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="34" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="26" t="s">
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="12"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" s="7"/>
+      <c r="P11" s="8"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>3</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="25" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="26" t="s">
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="26"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="12"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="O12" s="7"/>
+      <c r="P12" s="8"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>4</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="10" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="11" t="s">
+      <c r="I13" s="7"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="12"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O13" s="7"/>
+      <c r="P13" s="8"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>5</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="25" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="26" t="s">
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="26"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="12"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O14" s="7"/>
+      <c r="P14" s="8"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>6</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="25" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="26"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="26" t="s">
+      <c r="I15" s="10"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="26"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="12"/>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L15" s="10"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O15" s="7"/>
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>7</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="35" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="36"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="25" t="s">
+        <v>68</v>
+      </c>
       <c r="L16" s="26"/>
       <c r="M16" s="27"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="12"/>
-    </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N16" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="O16" s="26"/>
+      <c r="P16" s="27"/>
+    </row>
+    <row r="17" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>8</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="38" t="s">
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="39"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="12"/>
-    </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I17" s="13"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="L17" s="13"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="43"/>
+    </row>
+    <row r="18" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>9</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="38" t="s">
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="I18" s="39"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="12"/>
-    </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="L18" s="13"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O18" s="13"/>
+      <c r="P18" s="14"/>
+    </row>
+    <row r="19" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>10</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="38" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="12"/>
-    </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L19" s="13"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="43"/>
+    </row>
+    <row r="20" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>11</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="38" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="I20" s="39"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="12"/>
-    </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L20" s="13"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O20" s="13"/>
+      <c r="P20" s="14"/>
+    </row>
+    <row r="21" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>12</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="38" t="s">
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="I21" s="39"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="12"/>
-    </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I21" s="13"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="L21" s="13"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="14"/>
+    </row>
+    <row r="22" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>13</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="38" t="s">
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="I22" s="39"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="12"/>
-    </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I22" s="13"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="L22" s="13"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O22" s="13"/>
+      <c r="P22" s="14"/>
+    </row>
+    <row r="23" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>14</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="38" t="s">
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="I23" s="39"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="12"/>
-    </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I23" s="13"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="L23" s="13"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O23" s="13"/>
+      <c r="P23" s="14"/>
+    </row>
+    <row r="24" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>15</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="38" t="s">
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="I24" s="39"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="12"/>
-    </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I24" s="13"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L24" s="13"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O24" s="13"/>
+      <c r="P24" s="14"/>
+    </row>
+    <row r="25" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>16</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="38" t="s">
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="I25" s="39"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="12"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="L25" s="13"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="43"/>
     </row>
     <row r="26" spans="1:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>17</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="O26" s="13"/>
+      <c r="P26" s="14"/>
     </row>
     <row r="27" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>18</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O27" s="13"/>
+      <c r="P27" s="14"/>
     </row>
     <row r="28" spans="1:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>19</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="O28" s="13"/>
+      <c r="P28" s="14"/>
     </row>
     <row r="29" spans="1:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>20</v>
       </c>
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="39"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="O29" s="13"/>
+      <c r="P29" s="14"/>
     </row>
     <row r="30" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>21</v>
       </c>
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="O30" s="13"/>
+      <c r="P30" s="14"/>
     </row>
     <row r="31" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>22</v>
       </c>
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O31" s="13"/>
+      <c r="P31" s="14"/>
     </row>
     <row r="32" spans="1:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>23</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="12"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="O32" s="13"/>
+      <c r="P32" s="14"/>
     </row>
     <row r="33" spans="1:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>24</v>
       </c>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="12"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="O33" s="13"/>
+      <c r="P33" s="14"/>
     </row>
     <row r="34" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>25</v>
       </c>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="O34" s="13"/>
+      <c r="P34" s="14"/>
     </row>
     <row r="35" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>26</v>
       </c>
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O35" s="13"/>
+      <c r="P35" s="14"/>
     </row>
     <row r="36" spans="1:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>27</v>
       </c>
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="39"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="12"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="O36" s="13"/>
+      <c r="P36" s="14"/>
     </row>
     <row r="37" spans="1:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>28</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="12"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="O37" s="13"/>
+      <c r="P37" s="14"/>
     </row>
     <row r="38" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>29</v>
       </c>
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="39"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="12"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="O38" s="13"/>
+      <c r="P38" s="14"/>
     </row>
     <row r="39" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>30</v>
       </c>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="39"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="12"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O39" s="13"/>
+      <c r="P39" s="14"/>
     </row>
     <row r="40" spans="1:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>31</v>
       </c>
-      <c r="B40" s="38" t="s">
+      <c r="B40" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="39"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="12"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="O40" s="13"/>
+      <c r="P40" s="14"/>
     </row>
     <row r="41" spans="1:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>32</v>
       </c>
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="39"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="12"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="O41" s="13"/>
+      <c r="P41" s="14"/>
     </row>
     <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="12"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="8"/>
     </row>
     <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="12"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="8"/>
     </row>
     <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="26"/>
-      <c r="M44" s="27"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="12"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="8"/>
     </row>
     <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="26"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="12"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="190">
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
     <mergeCell ref="A1:P2"/>
     <mergeCell ref="A3:H4"/>
     <mergeCell ref="I3:P4"/>
@@ -2219,6 +2188,176 @@
     <mergeCell ref="K11:M11"/>
     <mergeCell ref="K12:M12"/>
     <mergeCell ref="K13:M13"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="N44:P44"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H11" r:id="rId1" xr:uid="{EC678F31-E00C-48EC-B708-3728F7D5BD23}"/>

--- a/Tests/Integration V2 + Search Bar Integration.xlsx
+++ b/Tests/Integration V2 + Search Bar Integration.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\braunman\Source\Repos\2018-02-healthcare-visualization\Tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerst_000\Source\Repos\2018-02-healthcare-visualization\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51F5BB7-C082-44E1-931C-E4C35EC0D514}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA0230C-D7C9-4763-9475-121EDF2C54E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075" xr2:uid="{A330BECD-E836-4AC6-938E-7E613B009CCC}"/>
   </bookViews>
@@ -343,7 +343,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -566,12 +566,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -580,6 +617,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -589,110 +656,110 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1009,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3386EA7-E985-4B0C-876A-4522744B2EB5}">
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40:J40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,185 +1088,185 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="30"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="33"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="11"/>
     </row>
     <row r="3" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="35"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="13"/>
     </row>
     <row r="4" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="35"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="13"/>
     </row>
     <row r="5" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="35"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="13"/>
     </row>
     <row r="6" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="35"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="13"/>
     </row>
     <row r="7" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="35"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="13"/>
     </row>
     <row r="8" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="37"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="15"/>
     </row>
     <row r="9" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="15" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="15" t="s">
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="16" t="s">
+      <c r="I9" s="25"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="17"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="26"/>
       <c r="N9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1210,1016 +1277,987 @@
       <c r="A10" s="5">
         <v>1</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="18" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="19" t="s">
+      <c r="I10" s="27"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="19"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="22" t="s">
+      <c r="L10" s="27"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="O10" s="23"/>
-      <c r="P10" s="24"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="21"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="21" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="10" t="s">
+      <c r="I11" s="29"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="6" t="s">
+      <c r="L11" s="29"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="O11" s="7"/>
-      <c r="P11" s="8"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="18"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>3</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="10" t="s">
+      <c r="I12" s="29"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="6" t="s">
+      <c r="L12" s="29"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="O12" s="7"/>
-      <c r="P12" s="8"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="18"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>4</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="6" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="7" t="s">
+      <c r="I13" s="17"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="6" t="s">
+      <c r="L13" s="17"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="O13" s="7"/>
-      <c r="P13" s="8"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="18"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>5</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9" t="s">
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="10" t="s">
+      <c r="I14" s="29"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="6" t="s">
+      <c r="L14" s="29"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="O14" s="7"/>
-      <c r="P14" s="8"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="18"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>6</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="10" t="s">
+      <c r="I15" s="29"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="6" t="s">
+      <c r="L15" s="29"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="O15" s="7"/>
-      <c r="P15" s="8"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="18"/>
     </row>
     <row r="16" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>7</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="25" t="s">
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="25" t="s">
+      <c r="I16" s="35"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="L16" s="26"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="25" t="s">
+      <c r="L16" s="35"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="O16" s="26"/>
-      <c r="P16" s="27"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="36"/>
     </row>
     <row r="17" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>8</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="12" t="s">
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="12" t="s">
+      <c r="I17" s="32"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="L17" s="13"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="43"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="39"/>
     </row>
     <row r="18" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>9</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="12" t="s">
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="12" t="s">
+      <c r="I18" s="32"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="L18" s="13"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="12" t="s">
+      <c r="L18" s="32"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="O18" s="13"/>
-      <c r="P18" s="14"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="33"/>
     </row>
     <row r="19" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>10</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="12" t="s">
+      <c r="C19" s="32"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="12" t="s">
+      <c r="I19" s="32"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="L19" s="13"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="43"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="39"/>
     </row>
     <row r="20" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>11</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="12" t="s">
+      <c r="C20" s="32"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="12" t="s">
+      <c r="I20" s="32"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="L20" s="13"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="12" t="s">
+      <c r="L20" s="32"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="O20" s="13"/>
-      <c r="P20" s="14"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="33"/>
     </row>
     <row r="21" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>12</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="12" t="s">
+      <c r="C21" s="32"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="12" t="s">
+      <c r="I21" s="32"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="L21" s="13"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="14"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="33"/>
     </row>
     <row r="22" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>13</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="12" t="s">
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="12" t="s">
+      <c r="I22" s="32"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="L22" s="13"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="12" t="s">
+      <c r="L22" s="32"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="O22" s="13"/>
-      <c r="P22" s="14"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="33"/>
     </row>
     <row r="23" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>14</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="12" t="s">
+      <c r="C23" s="32"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="12" t="s">
+      <c r="I23" s="32"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="L23" s="13"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="12" t="s">
+      <c r="L23" s="32"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="O23" s="13"/>
-      <c r="P23" s="14"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="33"/>
     </row>
     <row r="24" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>15</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="12" t="s">
+      <c r="C24" s="32"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="I24" s="13"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="12" t="s">
+      <c r="I24" s="32"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="L24" s="13"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="12" t="s">
+      <c r="L24" s="32"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="O24" s="13"/>
-      <c r="P24" s="14"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="33"/>
     </row>
     <row r="25" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>16</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="12" t="s">
+      <c r="C25" s="32"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="12" t="s">
+      <c r="I25" s="32"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="L25" s="13"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="43"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="39"/>
     </row>
     <row r="26" spans="1:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>17</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="12" t="s">
+      <c r="C26" s="32"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="O26" s="13"/>
-      <c r="P26" s="14"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="33"/>
     </row>
     <row r="27" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>18</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="12" t="s">
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="O27" s="13"/>
-      <c r="P27" s="14"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="33"/>
     </row>
     <row r="28" spans="1:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>19</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="12" t="s">
+      <c r="C28" s="32"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="O28" s="13"/>
-      <c r="P28" s="14"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="33"/>
     </row>
     <row r="29" spans="1:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>20</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="12" t="s">
+      <c r="C29" s="32"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="O29" s="13"/>
-      <c r="P29" s="14"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="33"/>
     </row>
     <row r="30" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>21</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="12" t="s">
+      <c r="C30" s="32"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="17"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="O30" s="13"/>
-      <c r="P30" s="14"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="33"/>
     </row>
     <row r="31" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>22</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="12" t="s">
+      <c r="C31" s="32"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="O31" s="13"/>
-      <c r="P31" s="14"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="33"/>
     </row>
     <row r="32" spans="1:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>23</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="12" t="s">
+      <c r="C32" s="32"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="17"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="O32" s="13"/>
-      <c r="P32" s="14"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="33"/>
     </row>
     <row r="33" spans="1:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>24</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="12" t="s">
+      <c r="C33" s="32"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="17"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="O33" s="13"/>
-      <c r="P33" s="14"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="33"/>
     </row>
     <row r="34" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>25</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="12" t="s">
+      <c r="C34" s="32"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="17"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="O34" s="13"/>
-      <c r="P34" s="14"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="33"/>
     </row>
     <row r="35" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>26</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="12" t="s">
+      <c r="C35" s="32"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="17"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="O35" s="13"/>
-      <c r="P35" s="14"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="33"/>
     </row>
     <row r="36" spans="1:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>27</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="12" t="s">
+      <c r="C36" s="32"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="17"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="O36" s="13"/>
-      <c r="P36" s="14"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="33"/>
     </row>
     <row r="37" spans="1:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>28</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="12" t="s">
+      <c r="C37" s="32"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="17"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="O37" s="13"/>
-      <c r="P37" s="14"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="33"/>
     </row>
     <row r="38" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>29</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="12" t="s">
+      <c r="C38" s="32"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="17"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="O38" s="13"/>
-      <c r="P38" s="14"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="33"/>
     </row>
     <row r="39" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>30</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="12" t="s">
+      <c r="C39" s="32"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="17"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="O39" s="13"/>
-      <c r="P39" s="14"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="33"/>
     </row>
     <row r="40" spans="1:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>31</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="12" t="s">
+      <c r="C40" s="32"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="17"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="O40" s="13"/>
-      <c r="P40" s="14"/>
-    </row>
-    <row r="41" spans="1:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="5">
+      <c r="O40" s="32"/>
+      <c r="P40" s="33"/>
+    </row>
+    <row r="41" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="44">
         <v>32</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="12" t="s">
+      <c r="C41" s="46"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="49"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="O41" s="13"/>
-      <c r="P41" s="14"/>
-    </row>
-    <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="8"/>
-    </row>
-    <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="8"/>
-    </row>
-    <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="8"/>
-    </row>
-    <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="8"/>
+      <c r="O41" s="46"/>
+      <c r="P41" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="190">
-    <mergeCell ref="A1:P2"/>
-    <mergeCell ref="A3:H4"/>
-    <mergeCell ref="I3:P4"/>
-    <mergeCell ref="I5:P6"/>
-    <mergeCell ref="A5:H6"/>
-    <mergeCell ref="A7:P8"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="K18:M18"/>
+  <mergeCells count="170">
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:P23"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="E22:G22"/>
@@ -2243,121 +2281,58 @@
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="E15:G15"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="A3:H4"/>
+    <mergeCell ref="I3:P4"/>
+    <mergeCell ref="I5:P6"/>
+    <mergeCell ref="A5:H6"/>
+    <mergeCell ref="A7:P8"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K13:M13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H11" r:id="rId1" xr:uid="{EC678F31-E00C-48EC-B708-3728F7D5BD23}"/>
